--- a/public/template_excel/Contact.xlsx
+++ b/public/template_excel/Contact.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NHS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NHS\Desktop\c-email-sending\public\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D151EF-607B-4C8A-8C8E-82351791402B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E31DEA-646D-4FAE-B1CC-6B64F2DD8D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D120A63-99E9-4A40-B954-52AC8B3DD74E}"/>
   </bookViews>
@@ -74,18 +74,6 @@
     <t>Van</t>
   </si>
   <si>
-    <t>0123 123 456</t>
-  </si>
-  <si>
-    <t>0124 123 456</t>
-  </si>
-  <si>
-    <t>0125 123 456</t>
-  </si>
-  <si>
-    <t>0126 123 456</t>
-  </si>
-  <si>
     <t>TP HCM</t>
   </si>
   <si>
@@ -111,6 +99,18 @@
   </si>
   <si>
     <t>nguyenvand@gmail.com</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>0123456790</t>
+  </si>
+  <si>
+    <t>0123456791</t>
+  </si>
+  <si>
+    <t>0123456792</t>
   </si>
 </sst>
 </file>
@@ -118,7 +118,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -168,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,27 +546,27 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3">
         <v>41255</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -575,27 +575,27 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3">
         <v>41256</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -604,27 +604,27 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
       </c>
       <c r="G4" s="3">
         <v>41257</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -633,19 +633,19 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3">
         <v>41258</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
